--- a/medicine/Enfance/Responsabilité_pénale_des_mineurs/Responsabilité_pénale_des_mineurs.xlsx
+++ b/medicine/Enfance/Responsabilité_pénale_des_mineurs/Responsabilité_pénale_des_mineurs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Responsabilit%C3%A9_p%C3%A9nale_des_mineurs</t>
+          <t>Responsabilité_pénale_des_mineurs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La responsabilité pénale des mineurs est un type de responsabilité pénale qui s'applique aux personnes n'ayant pas atteint la majorité. Elle se distingue de la responsabilité pénale en général puisqu'elle vise à s'adapter à la situation particulière des mineurs. Selon les pays, les infractions ou les peines peuvent être différentes, de même que les moyens de défense à l'encontre d'une infraction.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Responsabilit%C3%A9_p%C3%A9nale_des_mineurs</t>
+          <t>Responsabilité_pénale_des_mineurs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Canada</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le droit pénal canadien établit la responsabilité pénale des mineurs à l'âge de 12 ans, en vertu de l'article 13 du Code criminel[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le droit pénal canadien établit la responsabilité pénale des mineurs à l'âge de 12 ans, en vertu de l'article 13 du Code criminel.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Responsabilit%C3%A9_p%C3%A9nale_des_mineurs</t>
+          <t>Responsabilité_pénale_des_mineurs</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>France</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon l'article 122-8 du code pénal :  « Les mineurs capables de discernement sont pénalement responsables des crimes, délits ou contraventions dont ils ont été reconnus coupables, dans des conditions fixées par une loi particulière qui détermine les mesures de protection, d'assistance, de surveillance et d'éducation dont ils peuvent faire l'objet. »
 Contrairement à une idée reçue, il n'existe donc pas d'âge minimal de responsabilité pénale en France. La responsabilité pénale des mineurs est reconnue si le mineur est capable de discernement, quel que soit son âge. Si tel est le cas, les conditions de cette responsabilité sont fixées par une loi particulière prescrite par l’Ordonnance relative à l'enfance délinquante du 2 février 1945 (Cf en fin du 3ème et dernier paragraphe de cette présente page.)
-Ainsi pour les mineurs de moins de 10 ans, seules les mesures éducatives peuvent être prononcées par le juge des enfants ou le tribunal pour enfants. À partir de 10 ans des sanctions éducatives peuvent être prises. Ces sanctions sont inscrites au casier judiciaire. À partir de 13 ans le mineur encourt des poursuites pénales (peines) et peut être mis en garde à vue. Si l'excuse atténuante de minorité est appliquée, la peine encourue est divisée par deux. L'excuse atténuante s'applique également aux peines planchers. De 16 à 18 ans, les délinquants multirécidivistes se voient écarter automatiquement l'excuse atténuante de minorité. Le juge peut également écarter l'atténuation lorsque les circonstances de l'espèce et la personnalité du mineur le justifient[2].
+Ainsi pour les mineurs de moins de 10 ans, seules les mesures éducatives peuvent être prononcées par le juge des enfants ou le tribunal pour enfants. À partir de 10 ans des sanctions éducatives peuvent être prises. Ces sanctions sont inscrites au casier judiciaire. À partir de 13 ans le mineur encourt des poursuites pénales (peines) et peut être mis en garde à vue. Si l'excuse atténuante de minorité est appliquée, la peine encourue est divisée par deux. L'excuse atténuante s'applique également aux peines planchers. De 16 à 18 ans, les délinquants multirécidivistes se voient écarter automatiquement l'excuse atténuante de minorité. Le juge peut également écarter l'atténuation lorsque les circonstances de l'espèce et la personnalité du mineur le justifient.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Responsabilit%C3%A9_p%C3%A9nale_des_mineurs</t>
+          <t>Responsabilité_pénale_des_mineurs</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Grande-Bretagne</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En Grande-Bretagne, un mineur peut aller en prison dès l'âge de 10 ans. Cependant jusqu'à 14 ans, les mesures éducatives sont le principe. La majorité pénale est fixée à 18 ans.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Responsabilit%C3%A9_p%C3%A9nale_des_mineurs</t>
+          <t>Responsabilité_pénale_des_mineurs</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Espagne</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En Espagne, la responsabilité pénale est fixée à 14 ans (inclus).
 </t>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Responsabilit%C3%A9_p%C3%A9nale_des_mineurs</t>
+          <t>Responsabilité_pénale_des_mineurs</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,9 +657,11 @@
           <t>Suisse</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En Suisse, la majorité pénale est fixée à 10 ans[3].  Le droit pénal des mineurs connaît deux formes de sanction : les mesures de protection et les peines.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En Suisse, la majorité pénale est fixée à 10 ans.  Le droit pénal des mineurs connaît deux formes de sanction : les mesures de protection et les peines.
 Les mesures de protection :
 Surveillance
 Assistance personnelle
